--- a/DH307_Dashboard_Code_V18.xlsx
+++ b/DH307_Dashboard_Code_V18.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thing\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC6693E1-B319-4837-9FE2-ED408830B1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AD4160-EA6C-44D4-89AE-58297A074491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{16B8DE37-4794-4067-AB8B-C66E46502E76}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="18" activeTab="24" xr2:uid="{16B8DE37-4794-4067-AB8B-C66E46502E76}"/>
   </bookViews>
   <sheets>
     <sheet name="dis1_Region" sheetId="1" r:id="rId1"/>
@@ -7055,7 +7055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1401EE-E69B-4B30-8F96-EAEC7B3B5E80}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
@@ -9985,10 +9985,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0EB12F-07C7-4756-926C-18E93116A1CD}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9996,7 +9996,7 @@
     <col min="3" max="3" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -10007,7 +10007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>49</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>50</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>51</v>
       </c>
@@ -10039,11 +10039,8 @@
       <c r="C4" s="7">
         <v>24</v>
       </c>
-      <c r="D4">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>52</v>
       </c>
@@ -10054,7 +10051,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>53</v>
       </c>
@@ -10065,7 +10062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>54</v>
       </c>
@@ -10076,7 +10073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>55</v>
       </c>
@@ -10087,7 +10084,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>56</v>
       </c>
@@ -10098,7 +10095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>57</v>
       </c>
@@ -10109,7 +10106,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>58</v>
       </c>
@@ -10120,7 +10117,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>59</v>
       </c>
@@ -10131,7 +10128,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>60</v>
       </c>
@@ -10142,7 +10139,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>61</v>
       </c>
@@ -10153,7 +10150,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>62</v>
       </c>
@@ -10164,7 +10161,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>63</v>
       </c>
@@ -10217,7 +10214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC04ECC5-4FEB-498A-B9C0-895B56273FD8}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
